--- a/samples/words.xlsx
+++ b/samples/words.xlsx
@@ -1,49 +1,32 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>工作表</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>1</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="1" baseType="lpstr">
-      <vt:lpstr>Sheet1</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>openpyxl</dc:creator>
-  <cp:lastModifiedBy>茶姑娘。</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2024-01-26T02:10:00Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2024-01-26T07:38:18Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=docProps\custom.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <property fmtid="{D5CDD505-2E9C-101B-9397-08002B2CF9AE}" pid="2" name="ICV">
-    <vt:lpwstr>B253B3FC1E68410990B5E47AE3B0F87A_12</vt:lpwstr>
-  </property>
-  <property fmtid="{D5CDD505-2E9C-101B-9397-08002B2CF9AE}" pid="3" name="KSOProductBuildVer">
-    <vt:lpwstr>2052-12.1.0.16120</vt:lpwstr>
-  </property>
-  <property fmtid="{D5CDD505-2E9C-101B-9397-08002B2CF9AE}" pid="4" name="5B77E7CEEC58BC6AFAE8886BEB80DBEB">
-    <vt:lpwstr>otCYQxs9Dbw2bUEn/Soxv9pYAoWsCRIsU8+gIbxzzmNcJN13+qHIPyWmbF9hFzPHyi2m8DLwi54E5OVVM5pJ0yGmgAiYTaR6oYUdYZxdjep6I9xviFUFZ9aTScfBW9OGYXpngcdLy2vv4DInqdaMcCAUJQV7GLamfgOC0Dz4OPDCrTQGgdoMo2mzY4fpcpHgbDTOssui8s6OkIFvC4t/L1poDn84dTZHskfoZO0kS4/xS8kKCVnc8TxJobZPr6suhLnAwCMdq0cn+yp4WPMvI+HUKlZpP7TVIsvoyDmeQLvVPHDNGUCGc8Ix/bLwSByl3n2h2ZhZhTwkFV8LgxVY6Wgsq3zuiRudogWOtkk0Xyjw9PbMGco/dH7SlWsA/HIhRuIQWQVofzJoIk3xTd01aCsULAjFJE527NW4f7LigxX4FIRFTEhuTJLLlV/xPVr15o5NhjHgOhPd87qcgD+C3/FUs8XDSA7oeuHZxjfJD7FI5+sBu2nDMlCNYav0xjt0FCCWIn09FfiTAmH3ouMvQPg28v1uk/0oOC/DCpx5hs0nFi9fn4tgLFdNCdimk53ZDqssr93jkFBrS7SYHnAjRxisyFBqJ91AemL3DfqpIY4=</vt:lpwstr>
-  </property>
-</Properties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="793">
   <si>
     <t>序号</t>
@@ -2427,7 +2410,7 @@
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -2435,7 +2418,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2446,13 +2429,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2920,28 +2896,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2950,118 +2929,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3131,7 +3107,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -3413,46 +3389,19 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="34.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="30.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
   </cols>
